--- a/analysis/Data Analysis.xlsx
+++ b/analysis/Data Analysis.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerwong/Documents/workspace/research lab/happy_teacher/analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F6E38-17C4-F049-960D-31C6565D4370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="First Week"/>
-    <sheet r:id="rId2" sheetId="2" name="Last Week"/>
+    <sheet name="First Week" sheetId="1" r:id="rId1"/>
+    <sheet name="Last Week" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>ActivityWeek</t>
-  </si>
-  <si>
-    <t>#DaysofIntervention</t>
-  </si>
-  <si>
-    <t>DaysAfterConsent</t>
   </si>
   <si>
     <t>TotalSteps</t>
@@ -91,12 +91,23 @@
   <si>
     <t>Sedentary Minutes</t>
   </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Days of Intervention</t>
+  </si>
+  <si>
+    <t>Days After Consent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,16 +182,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -188,56 +199,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -248,10 +253,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -289,71 +294,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,7 +386,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -404,11 +409,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -417,13 +422,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -433,7 +438,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -442,7 +447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -451,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -459,10 +464,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -527,42 +532,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,58 +573,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    </row>
+    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>10101</v>
       </c>
@@ -638,16 +638,16 @@
         <v>3813</v>
       </c>
       <c r="F2" s="6">
-        <v>2.49666666984558</v>
+        <v>2.4966666698455802</v>
       </c>
       <c r="G2" s="6">
-        <v>2.49666666984558</v>
+        <v>2.4966666698455802</v>
       </c>
       <c r="H2" s="6">
-        <v>0.1699999968210857</v>
+        <v>0.16999999682108571</v>
       </c>
       <c r="I2" s="6">
-        <v>2.133333365122477</v>
+        <v>2.1333333651224771</v>
       </c>
       <c r="J2" s="6">
         <v>3.333333333333333</v>
@@ -656,7 +656,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="L2" s="6">
-        <v>159.6666666666667</v>
+        <v>159.66666666666671</v>
       </c>
       <c r="M2" s="6">
         <v>1007.666666666667</v>
@@ -671,16 +671,13 @@
         <v>1504</v>
       </c>
       <c r="Q2" s="6">
-        <v>331.3333333333333</v>
+        <v>331.33333333333331</v>
       </c>
       <c r="R2" s="6">
-        <v>76.33333333333333</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+        <v>76.333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>10102</v>
       </c>
@@ -694,31 +691,31 @@
         <v>5</v>
       </c>
       <c r="E3" s="6">
-        <v>9781.666666666666</v>
+        <v>9781.6666666666661</v>
       </c>
       <c r="F3" s="6">
-        <v>6.436666647593181</v>
+        <v>6.4366666475931806</v>
       </c>
       <c r="G3" s="6">
-        <v>6.436666647593181</v>
+        <v>6.4366666475931806</v>
       </c>
       <c r="H3" s="6">
-        <v>0.2666666607062023</v>
+        <v>0.26666666070620232</v>
       </c>
       <c r="I3" s="6">
         <v>6.126666704813637</v>
       </c>
       <c r="J3" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K3" s="6">
-        <v>9.333333333333334</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="L3" s="6">
-        <v>415.6666666666667</v>
+        <v>415.66666666666669</v>
       </c>
       <c r="M3" s="6">
-        <v>598.6666666666666</v>
+        <v>598.66666666666663</v>
       </c>
       <c r="N3" s="6">
         <v>3086.333333333333</v>
@@ -730,16 +727,13 @@
         <v>1659</v>
       </c>
       <c r="Q3" s="6">
-        <v>955.3333333333334</v>
+        <v>955.33333333333337</v>
       </c>
       <c r="R3" s="6">
         <v>64</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>10103</v>
       </c>
@@ -753,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="6">
-        <v>9585.666666666666</v>
+        <v>9585.6666666666661</v>
       </c>
       <c r="F4" s="6">
         <v>6.819999933242797</v>
@@ -762,13 +756,13 @@
         <v>6.819999933242797</v>
       </c>
       <c r="H4" s="6">
-        <v>0.2133333335320153</v>
+        <v>0.21333333353201531</v>
       </c>
       <c r="I4" s="6">
         <v>4.53333346048991</v>
       </c>
       <c r="J4" s="6">
-        <v>23.66666666666667</v>
+        <v>23.666666666666671</v>
       </c>
       <c r="K4" s="6">
         <v>13</v>
@@ -777,7 +771,7 @@
         <v>299</v>
       </c>
       <c r="M4" s="6">
-        <v>622.3333333333334</v>
+        <v>622.33333333333337</v>
       </c>
       <c r="N4" s="6">
         <v>1782.666666666667</v>
@@ -792,13 +786,10 @@
         <v>435</v>
       </c>
       <c r="R4" s="6">
-        <v>61.66666666666666</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+        <v>61.666666666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10104</v>
       </c>
@@ -815,28 +806,28 @@
         <v>13723.33333333333</v>
       </c>
       <c r="F5" s="6">
-        <v>9.44333330790203</v>
+        <v>9.4433333079020301</v>
       </c>
       <c r="G5" s="6">
-        <v>9.44333330790203</v>
+        <v>9.4433333079020301</v>
       </c>
       <c r="H5" s="6">
-        <v>1.093333368500072</v>
+        <v>1.0933333685000719</v>
       </c>
       <c r="I5" s="6">
-        <v>7.44333330790202</v>
+        <v>7.4433333079020203</v>
       </c>
       <c r="J5" s="6">
         <v>16</v>
       </c>
       <c r="K5" s="6">
-        <v>42.33333333333334</v>
+        <v>42.333333333333343</v>
       </c>
       <c r="L5" s="6">
-        <v>496.6666666666667</v>
+        <v>496.66666666666669</v>
       </c>
       <c r="M5" s="6">
-        <v>526.3333333333334</v>
+        <v>526.33333333333337</v>
       </c>
       <c r="N5" s="6">
         <v>3173</v>
@@ -851,15 +842,13 @@
         <v>1201.666666666667</v>
       </c>
       <c r="R5" s="6">
-        <v>71.66666666666667</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10106</v>
       </c>
@@ -876,16 +865,16 @@
         <v>12836</v>
       </c>
       <c r="F6" s="6">
-        <v>8.859999974568701</v>
+        <v>8.8599999745687015</v>
       </c>
       <c r="G6" s="6">
-        <v>8.859999974568701</v>
+        <v>8.8599999745687015</v>
       </c>
       <c r="H6" s="6">
         <v>0.7533333400885267</v>
       </c>
       <c r="I6" s="6">
-        <v>7.963333447774249</v>
+        <v>7.9633334477742492</v>
       </c>
       <c r="J6" s="6">
         <v>3.666666666666667</v>
@@ -894,7 +883,7 @@
         <v>38</v>
       </c>
       <c r="L6" s="6">
-        <v>502.6666666666667</v>
+        <v>502.66666666666669</v>
       </c>
       <c r="M6" s="6">
         <v>556</v>
@@ -909,20 +898,19 @@
         <v>1309</v>
       </c>
       <c r="Q6" s="6">
-        <v>868.3333333333334</v>
+        <v>868.33333333333337</v>
       </c>
       <c r="R6" s="6">
         <v>56.5</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10107</v>
       </c>
@@ -939,13 +927,13 @@
         <v>7552</v>
       </c>
       <c r="F7" s="6">
-        <v>5.699999968210856</v>
+        <v>5.6999999682108564</v>
       </c>
       <c r="G7" s="6">
-        <v>5.699999968210856</v>
+        <v>5.6999999682108564</v>
       </c>
       <c r="H7" s="6">
-        <v>0.3499999990065893</v>
+        <v>0.34999999900658929</v>
       </c>
       <c r="I7" s="6">
         <v>5.256666660308837</v>
@@ -977,15 +965,14 @@
       <c r="R7" s="6">
         <v>61</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="T7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10108</v>
       </c>
@@ -1002,28 +989,28 @@
         <v>5786.666666666667</v>
       </c>
       <c r="F8" s="6">
-        <v>4.186666687329607</v>
+        <v>4.1866666873296072</v>
       </c>
       <c r="G8" s="6">
-        <v>4.186666687329607</v>
+        <v>4.1866666873296072</v>
       </c>
       <c r="H8" s="6">
-        <v>0.269999995827675</v>
+        <v>0.26999999582767498</v>
       </c>
       <c r="I8" s="6">
-        <v>3.87333345413208</v>
+        <v>3.8733334541320801</v>
       </c>
       <c r="J8" s="6">
         <v>16</v>
       </c>
       <c r="K8" s="6">
-        <v>29.33333333333333</v>
+        <v>29.333333333333329</v>
       </c>
       <c r="L8" s="6">
-        <v>320.3333333333333</v>
+        <v>320.33333333333331</v>
       </c>
       <c r="M8" s="6">
-        <v>553.3333333333334</v>
+        <v>553.33333333333337</v>
       </c>
       <c r="N8" s="6">
         <v>2942</v>
@@ -1038,17 +1025,16 @@
         <v>890</v>
       </c>
       <c r="R8" s="6">
-        <v>83.66666666666667</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>83.666666666666671</v>
+      </c>
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10109</v>
       </c>
@@ -1065,16 +1051,16 @@
         <v>7965.666666666667</v>
       </c>
       <c r="F9" s="6">
-        <v>5.326666673024497</v>
+        <v>5.3266666730244969</v>
       </c>
       <c r="G9" s="6">
-        <v>5.326666673024497</v>
+        <v>5.3266666730244969</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <v>5.310000101725262</v>
+        <v>5.3100001017252616</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -1101,17 +1087,16 @@
         <v>473</v>
       </c>
       <c r="R9" s="6">
-        <v>76.33333333333333</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>76.333333333333329</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10204</v>
       </c>
@@ -1128,28 +1113,28 @@
         <v>10592</v>
       </c>
       <c r="F10" s="6">
-        <v>6.96999994913737</v>
+        <v>6.9699999491373701</v>
       </c>
       <c r="G10" s="6">
-        <v>6.96999994913737</v>
+        <v>6.9699999491373701</v>
       </c>
       <c r="H10" s="6">
-        <v>0.1000000002483527</v>
+        <v>0.10000000024835271</v>
       </c>
       <c r="I10" s="6">
-        <v>6.553333441416424</v>
+        <v>6.5533334414164237</v>
       </c>
       <c r="J10" s="6">
-        <v>23.66666666666667</v>
+        <v>23.666666666666671</v>
       </c>
       <c r="K10" s="6">
-        <v>20.66666666666667</v>
+        <v>20.666666666666671</v>
       </c>
       <c r="L10" s="6">
-        <v>422.3333333333333</v>
+        <v>422.33333333333331</v>
       </c>
       <c r="M10" s="6">
-        <v>571.3333333333334</v>
+        <v>571.33333333333337</v>
       </c>
       <c r="N10" s="6">
         <v>3668</v>
@@ -1166,15 +1151,14 @@
       <c r="R10" s="6">
         <v>84</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10205</v>
       </c>
@@ -1191,16 +1175,16 @@
         <v>8919</v>
       </c>
       <c r="F11" s="6">
-        <v>6.080000162124635</v>
+        <v>6.0800001621246347</v>
       </c>
       <c r="G11" s="6">
-        <v>6.080000162124635</v>
+        <v>6.0800001621246347</v>
       </c>
       <c r="H11" s="6">
-        <v>0.280000001192093</v>
+        <v>0.28000000119209301</v>
       </c>
       <c r="I11" s="6">
-        <v>5.78000020980835</v>
+        <v>5.7800002098083496</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
@@ -1229,15 +1213,14 @@
       <c r="R11" s="6">
         <v>63.5</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="T11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10301</v>
       </c>
@@ -1254,16 +1237,16 @@
         <v>197.5</v>
       </c>
       <c r="F12" s="6">
-        <v>0.1299999989569185</v>
+        <v>0.12999999895691849</v>
       </c>
       <c r="G12" s="6">
-        <v>0.1299999989569185</v>
+        <v>0.12999999895691849</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <v>0.0899999998509885</v>
+        <v>8.9999999850988499E-2</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
@@ -1292,11 +1275,14 @@
       <c r="R12" s="6">
         <v>72</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10302</v>
       </c>
@@ -1313,16 +1299,16 @@
         <v>10652</v>
       </c>
       <c r="F13" s="6">
-        <v>6.890000184377034</v>
+        <v>6.8900001843770342</v>
       </c>
       <c r="G13" s="6">
-        <v>6.890000184377034</v>
+        <v>6.8900001843770342</v>
       </c>
       <c r="H13" s="6">
-        <v>0.4000000059604643</v>
+        <v>0.40000000596046431</v>
       </c>
       <c r="I13" s="6">
-        <v>6.300000031789144</v>
+        <v>6.3000000317891436</v>
       </c>
       <c r="J13" s="6">
         <v>3.333333333333333</v>
@@ -1331,10 +1317,10 @@
         <v>10.33333333333333</v>
       </c>
       <c r="L13" s="6">
-        <v>380.3333333333333</v>
+        <v>380.33333333333331</v>
       </c>
       <c r="M13" s="6">
-        <v>665.6666666666666</v>
+        <v>665.66666666666663</v>
       </c>
       <c r="N13" s="6">
         <v>3194.333333333333</v>
@@ -1349,13 +1335,16 @@
         <v>914</v>
       </c>
       <c r="R13" s="6">
-        <v>65.33333333333333</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10303</v>
       </c>
@@ -1372,25 +1361,25 @@
         <v>10919.66666666667</v>
       </c>
       <c r="F14" s="6">
-        <v>7.220000028610227</v>
+        <v>7.2200000286102268</v>
       </c>
       <c r="G14" s="6">
-        <v>7.220000028610227</v>
+        <v>7.2200000286102268</v>
       </c>
       <c r="H14" s="6">
-        <v>0.5766666506727526</v>
+        <v>0.57666665067275258</v>
       </c>
       <c r="I14" s="6">
-        <v>6.126666625340779</v>
+        <v>6.1266666253407793</v>
       </c>
       <c r="J14" s="6">
         <v>7</v>
       </c>
       <c r="K14" s="6">
-        <v>17.33333333333333</v>
+        <v>17.333333333333329</v>
       </c>
       <c r="L14" s="6">
-        <v>377.3333333333333</v>
+        <v>377.33333333333331</v>
       </c>
       <c r="M14" s="6">
         <v>727</v>
@@ -1405,16 +1394,13 @@
         <v>1678</v>
       </c>
       <c r="Q14" s="6">
-        <v>909.6666666666666</v>
+        <v>909.66666666666663</v>
       </c>
       <c r="R14" s="6">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+        <v>72.333333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10304</v>
       </c>
@@ -1431,22 +1417,22 @@
         <v>5306.333333333333</v>
       </c>
       <c r="F15" s="6">
-        <v>3.62333345413208</v>
+        <v>3.6233334541320801</v>
       </c>
       <c r="G15" s="6">
-        <v>3.62333345413208</v>
+        <v>3.6233334541320801</v>
       </c>
       <c r="H15" s="6">
-        <v>0.3499999940395357</v>
+        <v>0.34999999403953569</v>
       </c>
       <c r="I15" s="6">
-        <v>3.200000047683716</v>
+        <v>3.2000000476837158</v>
       </c>
       <c r="J15" s="6">
         <v>4.333333333333333</v>
       </c>
       <c r="K15" s="6">
-        <v>27.66666666666667</v>
+        <v>27.666666666666671</v>
       </c>
       <c r="L15" s="6">
         <v>278</v>
@@ -1467,13 +1453,10 @@
         <v>498</v>
       </c>
       <c r="R15" s="6">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10305</v>
       </c>
@@ -1490,16 +1473,16 @@
         <v>5759.25</v>
       </c>
       <c r="F16" s="6">
-        <v>4.007499992847443</v>
+        <v>4.0074999928474426</v>
       </c>
       <c r="G16" s="6">
-        <v>4.007499992847443</v>
+        <v>4.0074999928474426</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <v>4.002499997615815</v>
+        <v>4.0024999976158151</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -1528,11 +1511,8 @@
       <c r="R16" s="6">
         <v>57.75</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    </row>
+    <row r="17" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>10306</v>
       </c>
@@ -1549,25 +1529,25 @@
         <v>6530.333333333333</v>
       </c>
       <c r="F17" s="6">
-        <v>4.520000060399373</v>
+        <v>4.5200000603993731</v>
       </c>
       <c r="G17" s="6">
-        <v>4.520000060399373</v>
+        <v>4.5200000603993731</v>
       </c>
       <c r="H17" s="6">
-        <v>0.4733333239952723</v>
+        <v>0.47333332399527228</v>
       </c>
       <c r="I17" s="6">
-        <v>3.816666762034096</v>
+        <v>3.8166667620340959</v>
       </c>
       <c r="J17" s="6">
         <v>9</v>
       </c>
       <c r="K17" s="6">
-        <v>18.66666666666667</v>
+        <v>18.666666666666671</v>
       </c>
       <c r="L17" s="6">
-        <v>241.3333333333333</v>
+        <v>241.33333333333329</v>
       </c>
       <c r="M17" s="6">
         <v>871</v>
@@ -1582,16 +1562,13 @@
         <v>1434</v>
       </c>
       <c r="Q17" s="6">
-        <v>461.3333333333333</v>
+        <v>461.33333333333331</v>
       </c>
       <c r="R17" s="6">
         <v>64</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    </row>
+    <row r="18" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>10307</v>
       </c>
@@ -1608,16 +1585,16 @@
         <v>6800.333333333333</v>
       </c>
       <c r="F18" s="6">
-        <v>4.353333324193955</v>
+        <v>4.3533333241939554</v>
       </c>
       <c r="G18" s="6">
-        <v>4.353333324193955</v>
+        <v>4.3533333241939554</v>
       </c>
       <c r="H18" s="6">
-        <v>0.4433333277702343</v>
+        <v>0.44333332777023432</v>
       </c>
       <c r="I18" s="6">
-        <v>3.420000006755192</v>
+        <v>3.4200000067551919</v>
       </c>
       <c r="J18" s="6">
         <v>8</v>
@@ -1626,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="6">
-        <v>232.3333333333333</v>
+        <v>232.33333333333329</v>
       </c>
       <c r="M18" s="6">
         <v>958</v>
@@ -1635,22 +1612,19 @@
         <v>2321.666666666667</v>
       </c>
       <c r="O18" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P18" s="6">
         <v>1510</v>
       </c>
       <c r="Q18" s="6">
-        <v>525.6666666666666</v>
+        <v>525.66666666666663</v>
       </c>
       <c r="R18" s="6">
-        <v>80.66666666666667</v>
-      </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+        <v>80.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>10401</v>
       </c>
@@ -1667,16 +1641,16 @@
         <v>3421</v>
       </c>
       <c r="F19" s="6">
-        <v>2.25999999046326</v>
+        <v>2.2599999904632599</v>
       </c>
       <c r="G19" s="6">
-        <v>2.25999999046326</v>
+        <v>2.2599999904632599</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
       </c>
       <c r="I19" s="6">
-        <v>2.09999990463257</v>
+        <v>2.0999999046325701</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -1705,11 +1679,8 @@
       <c r="R19" s="6">
         <v>67</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    </row>
+    <row r="20" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10402</v>
       </c>
@@ -1726,16 +1697,16 @@
         <v>17.5</v>
       </c>
       <c r="F20" s="6">
-        <v>0.009999999776483</v>
+        <v>9.9999997764830002E-3</v>
       </c>
       <c r="G20" s="6">
-        <v>0.009999999776483</v>
+        <v>9.9999997764830002E-3</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
       </c>
       <c r="I20" s="6">
-        <v>0.0049999998882415</v>
+        <v>4.9999998882415001E-3</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
@@ -1761,12 +1732,8 @@
       <c r="Q20" s="6">
         <v>1.5</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    </row>
+    <row r="21" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>10403</v>
       </c>
@@ -1780,31 +1747,31 @@
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <v>18437.33333333333</v>
+        <v>18437.333333333328</v>
       </c>
       <c r="F21" s="6">
-        <v>11.7733335494995</v>
+        <v>11.773333549499499</v>
       </c>
       <c r="G21" s="6">
-        <v>11.7733335494995</v>
+        <v>11.773333549499499</v>
       </c>
       <c r="H21" s="6">
-        <v>0.8533333539962767</v>
+        <v>0.85333335399627674</v>
       </c>
       <c r="I21" s="6">
-        <v>10.07000001271567</v>
+        <v>10.070000012715671</v>
       </c>
       <c r="J21" s="6">
         <v>14.33333333333333</v>
       </c>
       <c r="K21" s="6">
-        <v>23.33333333333333</v>
+        <v>23.333333333333329</v>
       </c>
       <c r="L21" s="6">
-        <v>458.6666666666667</v>
+        <v>458.66666666666669</v>
       </c>
       <c r="M21" s="6">
-        <v>538.3333333333334</v>
+        <v>538.33333333333337</v>
       </c>
       <c r="N21" s="6">
         <v>2386</v>
@@ -1821,11 +1788,8 @@
       <c r="R21" s="6">
         <v>68</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    </row>
+    <row r="22" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10404</v>
       </c>
@@ -1842,16 +1806,16 @@
         <v>7662.333333333333</v>
       </c>
       <c r="F22" s="6">
-        <v>5.113333384195964</v>
+        <v>5.1133333841959638</v>
       </c>
       <c r="G22" s="6">
-        <v>5.113333384195964</v>
+        <v>5.1133333841959638</v>
       </c>
       <c r="H22" s="6">
-        <v>0.200000007947286</v>
+        <v>0.20000000794728601</v>
       </c>
       <c r="I22" s="6">
-        <v>4.846666653951011</v>
+        <v>4.8466666539510106</v>
       </c>
       <c r="J22" s="6">
         <v>1.333333333333333</v>
@@ -1860,10 +1824,10 @@
         <v>7.666666666666667</v>
       </c>
       <c r="L22" s="6">
-        <v>277.6666666666667</v>
+        <v>277.66666666666669</v>
       </c>
       <c r="M22" s="6">
-        <v>657.6666666666666</v>
+        <v>657.66666666666663</v>
       </c>
       <c r="N22" s="6">
         <v>2194</v>
@@ -1875,16 +1839,13 @@
         <v>1427</v>
       </c>
       <c r="Q22" s="6">
-        <v>489.3333333333333</v>
+        <v>489.33333333333331</v>
       </c>
       <c r="R22" s="6">
-        <v>70.33333333333333</v>
-      </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10405</v>
       </c>
@@ -1901,13 +1862,13 @@
         <v>2457</v>
       </c>
       <c r="F23" s="6">
-        <v>1.5999999816219</v>
+        <v>1.5999999816218999</v>
       </c>
       <c r="G23" s="6">
-        <v>1.5999999816219</v>
+        <v>1.5999999816218999</v>
       </c>
       <c r="H23" s="6">
-        <v>0.2533333301544191</v>
+        <v>0.25333333015441911</v>
       </c>
       <c r="I23" s="6">
         <v>1.139999985694887</v>
@@ -1916,10 +1877,10 @@
         <v>6.333333333333333</v>
       </c>
       <c r="K23" s="6">
-        <v>35.66666666666666</v>
+        <v>35.666666666666657</v>
       </c>
       <c r="L23" s="6">
-        <v>136.6666666666667</v>
+        <v>136.66666666666671</v>
       </c>
       <c r="M23" s="6">
         <v>1013.666666666667</v>
@@ -1934,16 +1895,13 @@
         <v>1553</v>
       </c>
       <c r="Q23" s="6">
-        <v>503.3333333333333</v>
+        <v>503.33333333333331</v>
       </c>
       <c r="R23" s="6">
         <v>90</v>
       </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    </row>
+    <row r="24" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10406</v>
       </c>
@@ -1960,19 +1918,19 @@
         <v>14619</v>
       </c>
       <c r="F24" s="6">
-        <v>11.349999944369</v>
+        <v>11.349999944368999</v>
       </c>
       <c r="G24" s="6">
-        <v>11.349999944369</v>
+        <v>11.349999944368999</v>
       </c>
       <c r="H24" s="6">
         <v>0.75666666030884</v>
       </c>
       <c r="I24" s="6">
-        <v>5.893333474795024</v>
+        <v>5.8933334747950239</v>
       </c>
       <c r="J24" s="6">
-        <v>39.66666666666666</v>
+        <v>39.666666666666657</v>
       </c>
       <c r="K24" s="6">
         <v>18</v>
@@ -1981,28 +1939,25 @@
         <v>366</v>
       </c>
       <c r="M24" s="6">
-        <v>807.3333333333334</v>
+        <v>807.33333333333337</v>
       </c>
       <c r="N24" s="6">
         <v>2279</v>
       </c>
       <c r="O24" s="6">
-        <v>9.666666666666666</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="P24" s="6">
         <v>1212</v>
       </c>
       <c r="Q24" s="6">
-        <v>722.6666666666666</v>
+        <v>722.66666666666663</v>
       </c>
       <c r="R24" s="6">
-        <v>64.33333333333333</v>
-      </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+        <v>64.333333333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>10407</v>
       </c>
@@ -2025,22 +1980,22 @@
         <v>4.540000041325885</v>
       </c>
       <c r="H25" s="6">
-        <v>0.5666666775941848</v>
+        <v>0.56666667759418476</v>
       </c>
       <c r="I25" s="6">
-        <v>3.653333385785421</v>
+        <v>3.6533333857854209</v>
       </c>
       <c r="J25" s="6">
-        <v>8.666666666666666</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="K25" s="6">
-        <v>28.33333333333333</v>
+        <v>28.333333333333329</v>
       </c>
       <c r="L25" s="6">
         <v>235</v>
       </c>
       <c r="M25" s="6">
-        <v>457.6666666666667</v>
+        <v>457.66666666666669</v>
       </c>
       <c r="N25" s="6">
         <v>2378</v>
@@ -2052,16 +2007,13 @@
         <v>1494</v>
       </c>
       <c r="Q25" s="6">
-        <v>611.3333333333334</v>
+        <v>611.33333333333337</v>
       </c>
       <c r="R25" s="6">
         <v>79</v>
       </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    </row>
+    <row r="26" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10408</v>
       </c>
@@ -2078,16 +2030,16 @@
         <v>9753</v>
       </c>
       <c r="F26" s="6">
-        <v>6.646666685740153</v>
+        <v>6.6466666857401533</v>
       </c>
       <c r="G26" s="6">
-        <v>6.646666685740153</v>
+        <v>6.6466666857401533</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
       </c>
       <c r="I26" s="6">
-        <v>6.626666704813641</v>
+        <v>6.6266667048136414</v>
       </c>
       <c r="J26" s="6">
         <v>0</v>
@@ -2099,7 +2051,7 @@
         <v>418</v>
       </c>
       <c r="M26" s="6">
-        <v>607.3333333333334</v>
+        <v>607.33333333333337</v>
       </c>
       <c r="N26" s="6">
         <v>2193</v>
@@ -2114,13 +2066,10 @@
         <v>534</v>
       </c>
       <c r="R26" s="6">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>10409</v>
       </c>
@@ -2146,40 +2095,37 @@
         <v>1.070000012715659</v>
       </c>
       <c r="I27" s="6">
-        <v>9.16666634877523</v>
+        <v>9.1666663487752302</v>
       </c>
       <c r="J27" s="6">
         <v>11.66666666666667</v>
       </c>
       <c r="K27" s="6">
-        <v>35.66666666666666</v>
+        <v>35.666666666666657</v>
       </c>
       <c r="L27" s="6">
         <v>498</v>
       </c>
       <c r="M27" s="6">
-        <v>764.3333333333334</v>
+        <v>764.33333333333337</v>
       </c>
       <c r="N27" s="6">
         <v>2890.333333333333</v>
       </c>
       <c r="O27" s="6">
-        <v>8.333333333333334</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="P27" s="6">
         <v>1424</v>
       </c>
       <c r="Q27" s="6">
-        <v>998.3333333333334</v>
+        <v>998.33333333333337</v>
       </c>
       <c r="R27" s="6">
         <v>69</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    </row>
+    <row r="28" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10410</v>
       </c>
@@ -2214,31 +2160,28 @@
         <v>0</v>
       </c>
       <c r="L28" s="6">
-        <v>216.6666666666667</v>
+        <v>216.66666666666671</v>
       </c>
       <c r="M28" s="6">
-        <v>957.6666666666666</v>
+        <v>957.66666666666663</v>
       </c>
       <c r="N28" s="6">
         <v>1523.333333333333</v>
       </c>
       <c r="O28" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P28" s="6">
         <v>1159</v>
       </c>
       <c r="Q28" s="6">
-        <v>192.6666666666667</v>
+        <v>192.66666666666671</v>
       </c>
       <c r="R28" s="6">
-        <v>75.33333333333333</v>
-      </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+        <v>75.333333333333329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>10412</v>
       </c>
@@ -2255,16 +2198,16 @@
         <v>11546</v>
       </c>
       <c r="F29" s="6">
-        <v>7.736666838328044</v>
+        <v>7.7366668383280439</v>
       </c>
       <c r="G29" s="6">
-        <v>7.736666838328044</v>
+        <v>7.7366668383280439</v>
       </c>
       <c r="H29" s="6">
         <v>1.83666666348775</v>
       </c>
       <c r="I29" s="6">
-        <v>4.913333415985104</v>
+        <v>4.9133334159851039</v>
       </c>
       <c r="J29" s="6">
         <v>41</v>
@@ -2273,7 +2216,7 @@
         <v>111.6666666666667</v>
       </c>
       <c r="L29" s="6">
-        <v>370.3333333333333</v>
+        <v>370.33333333333331</v>
       </c>
       <c r="M29" s="6">
         <v>615</v>
@@ -2291,13 +2234,10 @@
         <v>1531.666666666667</v>
       </c>
       <c r="R29" s="6">
-        <v>70.33333333333333</v>
-      </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+        <v>70.333333333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>10413</v>
       </c>
@@ -2314,16 +2254,16 @@
         <v>7282</v>
       </c>
       <c r="F30" s="6">
-        <v>4.805000156164168</v>
+        <v>4.8050001561641684</v>
       </c>
       <c r="G30" s="6">
-        <v>4.805000156164168</v>
+        <v>4.8050001561641684</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
       </c>
       <c r="I30" s="6">
-        <v>4.794999927282333</v>
+        <v>4.7949999272823334</v>
       </c>
       <c r="J30" s="6">
         <v>0</v>
@@ -2352,11 +2292,8 @@
       <c r="R30" s="6">
         <v>64</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    </row>
+    <row r="31" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>10415</v>
       </c>
@@ -2370,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>8445.666666666666</v>
+        <v>8445.6666666666661</v>
       </c>
       <c r="F31" s="6">
-        <v>5.936666448911024</v>
+        <v>5.9366664489110237</v>
       </c>
       <c r="G31" s="6">
-        <v>5.936666448911024</v>
+        <v>5.9366664489110237</v>
       </c>
       <c r="H31" s="6">
-        <v>0.2399999996026357</v>
+        <v>0.23999999960263571</v>
       </c>
       <c r="I31" s="6">
         <v>5.293333490689597</v>
@@ -2391,10 +2328,10 @@
         <v>15</v>
       </c>
       <c r="L31" s="6">
-        <v>327.3333333333333</v>
+        <v>327.33333333333331</v>
       </c>
       <c r="M31" s="6">
-        <v>946.3333333333334</v>
+        <v>946.33333333333337</v>
       </c>
       <c r="N31" s="6">
         <v>2387</v>
@@ -2406,16 +2343,13 @@
         <v>1433</v>
       </c>
       <c r="Q31" s="6">
-        <v>634.6666666666666</v>
+        <v>634.66666666666663</v>
       </c>
       <c r="R31" s="6">
-        <v>74.33333333333333</v>
-      </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+        <v>74.333333333333329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>10501</v>
       </c>
@@ -2432,16 +2366,16 @@
         <v>7196.5</v>
       </c>
       <c r="F32" s="6">
-        <v>4.610000014305116</v>
+        <v>4.6100000143051156</v>
       </c>
       <c r="G32" s="6">
-        <v>4.610000014305116</v>
+        <v>4.6100000143051156</v>
       </c>
       <c r="H32" s="6">
-        <v>0.469999998807907</v>
+        <v>0.46999999880790699</v>
       </c>
       <c r="I32" s="6">
-        <v>3.31000006198883</v>
+        <v>3.3100000619888301</v>
       </c>
       <c r="J32" s="6">
         <v>17.5</v>
@@ -2470,11 +2404,8 @@
       <c r="R32" s="6">
         <v>66.5</v>
       </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    </row>
+    <row r="33" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>10502</v>
       </c>
@@ -2491,13 +2422,13 @@
         <v>8014</v>
       </c>
       <c r="F33" s="6">
-        <v>5.295000076293945</v>
+        <v>5.2950000762939453</v>
       </c>
       <c r="G33" s="6">
-        <v>5.295000076293945</v>
+        <v>5.2950000762939453</v>
       </c>
       <c r="H33" s="6">
-        <v>0.4399999976158139</v>
+        <v>0.43999999761581388</v>
       </c>
       <c r="I33" s="6">
         <v>3.960000038146974</v>
@@ -2529,11 +2460,8 @@
       <c r="R33" s="6">
         <v>54.5</v>
       </c>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    </row>
+    <row r="34" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>10503</v>
       </c>
@@ -2556,10 +2484,10 @@
         <v>4.459999918937684</v>
       </c>
       <c r="H34" s="6">
-        <v>0.485000014305115</v>
+        <v>0.48500001430511502</v>
       </c>
       <c r="I34" s="6">
-        <v>3.929999947547914</v>
+        <v>3.9299999475479139</v>
       </c>
       <c r="J34" s="6">
         <v>0.5</v>
@@ -2588,11 +2516,8 @@
       <c r="R34" s="6">
         <v>62</v>
       </c>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    </row>
+    <row r="35" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>10504</v>
       </c>
@@ -2609,13 +2534,13 @@
         <v>4067</v>
       </c>
       <c r="F35" s="6">
-        <v>2.66500002145767</v>
+        <v>2.6650000214576699</v>
       </c>
       <c r="G35" s="6">
-        <v>2.66500002145767</v>
+        <v>2.6650000214576699</v>
       </c>
       <c r="H35" s="6">
-        <v>0.209999993443489</v>
+        <v>0.20999999344348899</v>
       </c>
       <c r="I35" s="6">
         <v>2.254999935626985</v>
@@ -2647,11 +2572,8 @@
       <c r="R35" s="6">
         <v>71</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    </row>
+    <row r="36" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>10505</v>
       </c>
@@ -2668,13 +2590,13 @@
         <v>3776.5</v>
       </c>
       <c r="F36" s="6">
-        <v>2.650000035762785</v>
+        <v>2.6500000357627851</v>
       </c>
       <c r="G36" s="6">
-        <v>2.650000035762785</v>
+        <v>2.6500000357627851</v>
       </c>
       <c r="H36" s="6">
-        <v>0.3449999988079069</v>
+        <v>0.34499999880790688</v>
       </c>
       <c r="I36" s="6">
         <v>2.23499995470047</v>
@@ -2706,11 +2628,8 @@
       <c r="R36" s="6">
         <v>66</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    </row>
+    <row r="37" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>10601</v>
       </c>
@@ -2736,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6">
-        <v>1.626000022888184</v>
+        <v>1.6260000228881839</v>
       </c>
       <c r="J37" s="6">
         <v>0</v>
@@ -2745,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="6">
-        <v>147.2</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="M37" s="6">
         <v>745.4</v>
@@ -2763,13 +2682,10 @@
         <v>243.4</v>
       </c>
       <c r="R37" s="6">
-        <v>76.4</v>
-      </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>10602</v>
       </c>
@@ -2786,19 +2702,19 @@
         <v>5796.8</v>
       </c>
       <c r="F38" s="6">
-        <v>3.878000020980838</v>
+        <v>3.8780000209808381</v>
       </c>
       <c r="G38" s="6">
-        <v>3.878000020980838</v>
+        <v>3.8780000209808381</v>
       </c>
       <c r="H38" s="6">
-        <v>0.1740000016987324</v>
+        <v>0.17400000169873239</v>
       </c>
       <c r="I38" s="6">
-        <v>2.279999995231628</v>
+        <v>2.2799999952316279</v>
       </c>
       <c r="J38" s="6">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K38" s="6">
         <v>3.8</v>
@@ -2824,11 +2740,8 @@
       <c r="R38" s="6">
         <v>63.8</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    </row>
+    <row r="39" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>10603</v>
       </c>
@@ -2845,16 +2758,16 @@
         <v>2684.8</v>
       </c>
       <c r="F39" s="6">
-        <v>1.796000003814696</v>
+        <v>1.7960000038146959</v>
       </c>
       <c r="G39" s="6">
-        <v>1.796000003814696</v>
+        <v>1.7960000038146959</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
       <c r="I39" s="6">
-        <v>1.78800001144409</v>
+        <v>1.7880000114440899</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -2883,11 +2796,8 @@
       <c r="R39" s="6">
         <v>88</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    </row>
+    <row r="40" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>10604</v>
       </c>
@@ -2904,16 +2814,16 @@
         <v>11895.75</v>
       </c>
       <c r="F40" s="6">
-        <v>8.079999923706048</v>
+        <v>8.0799999237060476</v>
       </c>
       <c r="G40" s="6">
-        <v>8.079999923706048</v>
+        <v>8.0799999237060476</v>
       </c>
       <c r="H40" s="6">
-        <v>0.2575000058859587</v>
+        <v>0.25750000588595873</v>
       </c>
       <c r="I40" s="6">
-        <v>6.145000100135801</v>
+        <v>6.1450001001358006</v>
       </c>
       <c r="J40" s="6">
         <v>22</v>
@@ -2942,11 +2852,8 @@
       <c r="R40" s="6">
         <v>72.5</v>
       </c>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    </row>
+    <row r="41" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>10605</v>
       </c>
@@ -2963,16 +2870,16 @@
         <v>2795</v>
       </c>
       <c r="F41" s="6">
-        <v>1.845000037923458</v>
+        <v>1.8450000379234579</v>
       </c>
       <c r="G41" s="6">
-        <v>1.845000037923458</v>
+        <v>1.8450000379234579</v>
       </c>
       <c r="H41" s="6">
-        <v>0.03999999910593049</v>
+        <v>3.9999999105930488E-2</v>
       </c>
       <c r="I41" s="6">
-        <v>1.789999961853025</v>
+        <v>1.7899999618530249</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
@@ -3001,11 +2908,8 @@
       <c r="R41" s="6">
         <v>72</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    </row>
+    <row r="42" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>10606</v>
       </c>
@@ -3022,16 +2926,16 @@
         <v>3368.25</v>
       </c>
       <c r="F42" s="6">
-        <v>2.382500022649766</v>
+        <v>2.3825000226497659</v>
       </c>
       <c r="G42" s="6">
-        <v>2.382500022649766</v>
+        <v>2.3825000226497659</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
       </c>
       <c r="I42" s="6">
-        <v>2.372500017285348</v>
+        <v>2.3725000172853479</v>
       </c>
       <c r="J42" s="6">
         <v>0</v>
@@ -3060,11 +2964,8 @@
       <c r="R42" s="6">
         <v>65</v>
       </c>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    </row>
+    <row r="43" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>10607</v>
       </c>
@@ -3081,16 +2982,16 @@
         <v>8063</v>
       </c>
       <c r="F43" s="6">
-        <v>5.497500066645449</v>
+        <v>5.4975000666454488</v>
       </c>
       <c r="G43" s="6">
-        <v>5.497500066645449</v>
+        <v>5.4975000666454488</v>
       </c>
       <c r="H43" s="6">
-        <v>0.5150000080466273</v>
+        <v>0.51500000804662727</v>
       </c>
       <c r="I43" s="6">
-        <v>4.634999995119869</v>
+        <v>4.6349999951198688</v>
       </c>
       <c r="J43" s="6">
         <v>6.75</v>
@@ -3117,13 +3018,10 @@
         <v>409.5</v>
       </c>
       <c r="R43" s="6">
-        <v>73.66666666666667</v>
-      </c>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+        <v>73.666666666666671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10608</v>
       </c>
@@ -3140,16 +3038,16 @@
         <v>7391.25</v>
       </c>
       <c r="F44" s="6">
-        <v>4.805000066757202</v>
+        <v>4.8050000667572021</v>
       </c>
       <c r="G44" s="6">
-        <v>4.805000066757202</v>
+        <v>4.8050000667572021</v>
       </c>
       <c r="H44" s="6">
-        <v>0.3775000050663945</v>
+        <v>0.37750000506639447</v>
       </c>
       <c r="I44" s="6">
-        <v>4.407499969005585</v>
+        <v>4.4074999690055847</v>
       </c>
       <c r="J44" s="6">
         <v>0.5</v>
@@ -3178,11 +3076,8 @@
       <c r="R44" s="6">
         <v>70.75</v>
       </c>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    </row>
+    <row r="45" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>10609</v>
       </c>
@@ -3205,7 +3100,7 @@
         <v>3.027499973773955</v>
       </c>
       <c r="H45" s="6">
-        <v>0.4499999992549423</v>
+        <v>0.44999999925494227</v>
       </c>
       <c r="I45" s="6">
         <v>2.387500017881393</v>
@@ -3235,13 +3130,10 @@
         <v>529.75</v>
       </c>
       <c r="R45" s="6">
-        <v>84.33333333333333</v>
-      </c>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+        <v>84.333333333333329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>10610</v>
       </c>
@@ -3258,13 +3150,13 @@
         <v>4849.2</v>
       </c>
       <c r="F46" s="6">
-        <v>3.20199999809265</v>
+        <v>3.2019999980926501</v>
       </c>
       <c r="G46" s="6">
-        <v>3.20199999809265</v>
+        <v>3.2019999980926501</v>
       </c>
       <c r="H46" s="6">
-        <v>0.046000000834465</v>
+        <v>4.6000000834465003E-2</v>
       </c>
       <c r="I46" s="6">
         <v>3.055999994277955</v>
@@ -3279,7 +3171,7 @@
         <v>241.2</v>
       </c>
       <c r="M46" s="6">
-        <v>635.8</v>
+        <v>635.79999999999995</v>
       </c>
       <c r="N46" s="6">
         <v>2329</v>
@@ -3294,13 +3186,10 @@
         <v>401.6</v>
       </c>
       <c r="R46" s="6">
-        <v>70.4</v>
-      </c>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>10611</v>
       </c>
@@ -3323,10 +3212,10 @@
         <v>4.829999947547913</v>
       </c>
       <c r="H47" s="6">
-        <v>0.5240000009536747</v>
+        <v>0.52400000095367472</v>
       </c>
       <c r="I47" s="6">
-        <v>3.05399992465973</v>
+        <v>3.0539999246597298</v>
       </c>
       <c r="J47" s="6">
         <v>15</v>
@@ -3355,11 +3244,8 @@
       <c r="R47" s="6">
         <v>64</v>
       </c>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    </row>
+    <row r="48" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>10612</v>
       </c>
@@ -3373,19 +3259,19 @@
         <v>3</v>
       </c>
       <c r="E48" s="6">
-        <v>4369.4</v>
+        <v>4369.3999999999996</v>
       </c>
       <c r="F48" s="6">
-        <v>2.995999956130982</v>
+        <v>2.9959999561309818</v>
       </c>
       <c r="G48" s="6">
-        <v>2.995999956130982</v>
+        <v>2.9959999561309818</v>
       </c>
       <c r="H48" s="6">
         <v>0.1700000002980232</v>
       </c>
       <c r="I48" s="6">
-        <v>2.807999992370606</v>
+        <v>2.8079999923706058</v>
       </c>
       <c r="J48" s="6">
         <v>1</v>
@@ -3414,11 +3300,8 @@
       <c r="R48" s="6">
         <v>57.6</v>
       </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    </row>
+    <row r="49" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>10613</v>
       </c>
@@ -3435,16 +3318,16 @@
         <v>4029</v>
       </c>
       <c r="F49" s="6">
-        <v>2.529999881982803</v>
+        <v>2.5299998819828029</v>
       </c>
       <c r="G49" s="6">
-        <v>2.529999881982803</v>
+        <v>2.5299998819828029</v>
       </c>
       <c r="H49" s="6">
-        <v>0.7649999856948849</v>
+        <v>0.76499998569488492</v>
       </c>
       <c r="I49" s="6">
-        <v>0.639999985694885</v>
+        <v>0.63999998569488503</v>
       </c>
       <c r="J49" s="6">
         <v>61.5</v>
@@ -3473,11 +3356,8 @@
       <c r="R49" s="6">
         <v>74</v>
       </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    </row>
+    <row r="50" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>10614</v>
       </c>
@@ -3500,7 +3380,7 @@
         <v>2.146666721751294</v>
       </c>
       <c r="H50" s="6">
-        <v>0.3100000023841857</v>
+        <v>0.31000000238418568</v>
       </c>
       <c r="I50" s="6">
         <v>1.170000032832224</v>
@@ -3512,7 +3392,7 @@
         <v>12.33333333333333</v>
       </c>
       <c r="L50" s="6">
-        <v>90.66666666666667</v>
+        <v>90.666666666666671</v>
       </c>
       <c r="M50" s="6">
         <v>1210.333333333333</v>
@@ -3521,22 +3401,19 @@
         <v>1678</v>
       </c>
       <c r="O50" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P50" s="6">
         <v>1371</v>
       </c>
       <c r="Q50" s="6">
-        <v>210.3333333333333</v>
+        <v>210.33333333333329</v>
       </c>
       <c r="R50" s="6">
         <v>77.5</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    </row>
+    <row r="51" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>10615</v>
       </c>
@@ -3553,16 +3430,16 @@
         <v>5048.333333333333</v>
       </c>
       <c r="F51" s="6">
-        <v>3.65333334604899</v>
+        <v>3.6533333460489898</v>
       </c>
       <c r="G51" s="6">
-        <v>3.65333334604899</v>
+        <v>3.6533333460489898</v>
       </c>
       <c r="H51" s="6">
-        <v>0.01333333303531</v>
+        <v>1.3333333035310001E-2</v>
       </c>
       <c r="I51" s="6">
-        <v>3.59333332379659</v>
+        <v>3.5933333237965899</v>
       </c>
       <c r="J51" s="6">
         <v>3.666666666666667</v>
@@ -3571,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="6">
-        <v>275.6666666666667</v>
+        <v>275.66666666666669</v>
       </c>
       <c r="M51" s="6">
         <v>815</v>
@@ -3580,22 +3457,19 @@
         <v>2752</v>
       </c>
       <c r="O51" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P51" s="6">
         <v>1899</v>
       </c>
       <c r="Q51" s="6">
-        <v>535.3333333333334</v>
+        <v>535.33333333333337</v>
       </c>
       <c r="R51" s="6">
-        <v>57.66666666666666</v>
-      </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+        <v>57.666666666666657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>10616</v>
       </c>
@@ -3618,7 +3492,7 @@
         <v>1.46666665871938</v>
       </c>
       <c r="H52" s="6">
-        <v>0.08333333581685999</v>
+        <v>8.3333335816859991E-2</v>
       </c>
       <c r="I52" s="6">
         <v>1.343333323796589</v>
@@ -3633,7 +3507,7 @@
         <v>107.6666666666667</v>
       </c>
       <c r="M52" s="6">
-        <v>901.6666666666666</v>
+        <v>901.66666666666663</v>
       </c>
       <c r="N52" s="6">
         <v>2136</v>
@@ -3645,16 +3519,13 @@
         <v>1639</v>
       </c>
       <c r="Q52" s="6">
-        <v>273.3333333333333</v>
+        <v>273.33333333333331</v>
       </c>
       <c r="R52" s="6">
         <v>83</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    </row>
+    <row r="53" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>10701</v>
       </c>
@@ -3668,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="6">
-        <v>2260.2</v>
+        <v>2260.1999999999998</v>
       </c>
       <c r="F53" s="6">
         <v>1.567999958992004</v>
@@ -3677,7 +3548,7 @@
         <v>1.567999958992004</v>
       </c>
       <c r="H53" s="6">
-        <v>0.0339999999850988</v>
+        <v>3.3999999985098797E-2</v>
       </c>
       <c r="I53" s="6">
         <v>1.507999992370606</v>
@@ -3709,11 +3580,8 @@
       <c r="R53" s="6">
         <v>66</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    </row>
+    <row r="54" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>10702</v>
       </c>
@@ -3727,19 +3595,19 @@
         <v>5</v>
       </c>
       <c r="E54" s="6">
-        <v>9129.2</v>
+        <v>9129.2000000000007</v>
       </c>
       <c r="F54" s="6">
-        <v>6.102000045776368</v>
+        <v>6.1020000457763679</v>
       </c>
       <c r="G54" s="6">
-        <v>6.102000045776368</v>
+        <v>6.1020000457763679</v>
       </c>
       <c r="H54" s="6">
         <v>0.19200000166893</v>
       </c>
       <c r="I54" s="6">
-        <v>5.792000055313112</v>
+        <v>5.7920000553131121</v>
       </c>
       <c r="J54" s="6">
         <v>1.8</v>
@@ -3763,16 +3631,13 @@
         <v>1532</v>
       </c>
       <c r="Q54" s="6">
-        <v>623.2</v>
+        <v>623.20000000000005</v>
       </c>
       <c r="R54" s="6">
         <v>63.6</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    </row>
+    <row r="55" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>10703</v>
       </c>
@@ -3789,10 +3654,10 @@
         <v>1312</v>
       </c>
       <c r="F55" s="6">
-        <v>0.8500000238418579</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="G55" s="6">
-        <v>0.8500000238418579</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="H55" s="6">
         <v>0.25</v>
@@ -3827,11 +3692,8 @@
       <c r="R55" s="6">
         <v>74</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    </row>
+    <row r="56" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>10704</v>
       </c>
@@ -3848,16 +3710,16 @@
         <v>9306</v>
       </c>
       <c r="F56" s="6">
-        <v>6.44000005722046</v>
+        <v>6.4400000572204599</v>
       </c>
       <c r="G56" s="6">
-        <v>6.44000005722046</v>
+        <v>6.4400000572204599</v>
       </c>
       <c r="H56" s="6">
-        <v>0.439999997615814</v>
+        <v>0.43999999761581399</v>
       </c>
       <c r="I56" s="6">
-        <v>5.98000001907349</v>
+        <v>5.9800000190734899</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -3886,11 +3748,8 @@
       <c r="R56" s="6">
         <v>79</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    </row>
+    <row r="57" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>10801</v>
       </c>
@@ -3907,13 +3766,13 @@
         <v>8356.25</v>
       </c>
       <c r="F57" s="6">
-        <v>6.05250000953674</v>
+        <v>6.0525000095367396</v>
       </c>
       <c r="G57" s="6">
-        <v>6.05250000953674</v>
+        <v>6.0525000095367396</v>
       </c>
       <c r="H57" s="6">
-        <v>0.3350000046193597</v>
+        <v>0.33500000461935969</v>
       </c>
       <c r="I57" s="6">
         <v>3.652499914169312</v>
@@ -3945,11 +3804,8 @@
       <c r="R57" s="6">
         <v>66.5</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    </row>
+    <row r="58" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>10802</v>
       </c>
@@ -3972,10 +3828,10 @@
         <v>11.52250003814698</v>
       </c>
       <c r="H58" s="6">
-        <v>0.8524999767541883</v>
+        <v>0.85249997675418832</v>
       </c>
       <c r="I58" s="6">
-        <v>6.49750006198883</v>
+        <v>6.4975000619888297</v>
       </c>
       <c r="J58" s="6">
         <v>63.75</v>
@@ -4004,11 +3860,8 @@
       <c r="R58" s="6">
         <v>67.25</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    </row>
+    <row r="59" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>10803</v>
       </c>
@@ -4025,16 +3878,16 @@
         <v>6223</v>
       </c>
       <c r="F59" s="6">
-        <v>4.372000017762184</v>
+        <v>4.3720000177621836</v>
       </c>
       <c r="G59" s="6">
-        <v>4.372000017762184</v>
+        <v>4.3720000177621836</v>
       </c>
       <c r="H59" s="6">
-        <v>0.1100000023841858</v>
+        <v>0.11000000238418579</v>
       </c>
       <c r="I59" s="6">
-        <v>4.241999998688698</v>
+        <v>4.2419999986886978</v>
       </c>
       <c r="J59" s="6">
         <v>0.2</v>
@@ -4063,11 +3916,8 @@
       <c r="R59" s="6">
         <v>84.8</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    </row>
+    <row r="60" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>10804</v>
       </c>
@@ -4093,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="6">
-        <v>3.962500005960465</v>
+        <v>3.9625000059604649</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -4122,9 +3972,6 @@
       <c r="R60" s="6">
         <v>61.25</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4132,39 +3979,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="U14" sqref="U14"/>
+      <selection pane="topRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4172,55 +4020,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    </row>
+    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>10101</v>
       </c>
@@ -4246,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>1.27999997138977</v>
+        <v>1.2799999713897701</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -4272,9 +4120,8 @@
       <c r="Q2" s="6">
         <v>252</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>10102</v>
       </c>
@@ -4291,16 +4138,16 @@
         <v>8315.5</v>
       </c>
       <c r="F3" s="6">
-        <v>5.457499980926515</v>
+        <v>5.4574999809265146</v>
       </c>
       <c r="G3" s="6">
-        <v>5.457499980926515</v>
+        <v>5.4574999809265146</v>
       </c>
       <c r="H3" s="6">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I3" s="6">
-        <v>5.362499952316285</v>
+        <v>5.3624999523162851</v>
       </c>
       <c r="J3" s="6">
         <v>0.25</v>
@@ -4330,7 +4177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>10103</v>
       </c>
@@ -4347,28 +4194,28 @@
         <v>5443</v>
       </c>
       <c r="F4" s="6">
-        <v>3.383333384990692</v>
+        <v>3.3833333849906921</v>
       </c>
       <c r="G4" s="6">
-        <v>3.383333384990692</v>
+        <v>3.3833333849906921</v>
       </c>
       <c r="H4" s="6">
-        <v>0.03333333383003866</v>
+        <v>3.3333333830038663E-2</v>
       </c>
       <c r="I4" s="6">
-        <v>3.180000086625418</v>
+        <v>3.1800000866254181</v>
       </c>
       <c r="J4" s="6">
         <v>2.333333333333333</v>
       </c>
       <c r="K4" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L4" s="6">
-        <v>211.3333333333333</v>
+        <v>211.33333333333329</v>
       </c>
       <c r="M4" s="6">
-        <v>424.6666666666667</v>
+        <v>424.66666666666669</v>
       </c>
       <c r="N4" s="6">
         <v>1239.333333333333</v>
@@ -4380,13 +4227,13 @@
         <v>865</v>
       </c>
       <c r="Q4" s="6">
-        <v>219.3333333333333</v>
+        <v>219.33333333333329</v>
       </c>
       <c r="R4" s="6">
-        <v>64.33333333333333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>64.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10104</v>
       </c>
@@ -4403,16 +4250,16 @@
         <v>10704.5</v>
       </c>
       <c r="F5" s="6">
-        <v>7.41000008583069</v>
+        <v>7.4100000858306903</v>
       </c>
       <c r="G5" s="6">
-        <v>7.41000008583069</v>
+        <v>7.4100000858306903</v>
       </c>
       <c r="H5" s="6">
-        <v>0.280000001192093</v>
+        <v>0.28000000119209301</v>
       </c>
       <c r="I5" s="6">
-        <v>7.09499979019165</v>
+        <v>7.0949997901916504</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -4441,8 +4288,11 @@
       <c r="R5" s="6">
         <v>82.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="T5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10106</v>
       </c>
@@ -4459,16 +4309,16 @@
         <v>8120.5</v>
       </c>
       <c r="F6" s="6">
-        <v>5.620000123977661</v>
+        <v>5.6200001239776611</v>
       </c>
       <c r="G6" s="6">
-        <v>5.620000123977661</v>
+        <v>5.6200001239776611</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>5.59500026702881</v>
+        <v>5.5950002670288104</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -4497,8 +4347,14 @@
       <c r="R6" s="6">
         <v>64.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10107</v>
       </c>
@@ -4515,16 +4371,16 @@
         <v>5349.5</v>
       </c>
       <c r="F7" s="6">
-        <v>4.044999837875365</v>
+        <v>4.0449998378753653</v>
       </c>
       <c r="G7" s="6">
-        <v>4.044999837875365</v>
+        <v>4.0449998378753653</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>4.03499984741211</v>
+        <v>4.0349998474121103</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -4553,8 +4409,14 @@
       <c r="R7" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="T7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10108</v>
       </c>
@@ -4571,16 +4433,16 @@
         <v>1530.5</v>
       </c>
       <c r="F8" s="6">
-        <v>1.105000004172323</v>
+        <v>1.1050000041723229</v>
       </c>
       <c r="G8" s="6">
-        <v>1.105000004172323</v>
+        <v>1.1050000041723229</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>1.105000004172323</v>
+        <v>1.1050000041723229</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -4609,8 +4471,14 @@
       <c r="R8" s="6">
         <v>84</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10109</v>
       </c>
@@ -4627,16 +4495,16 @@
         <v>6800</v>
       </c>
       <c r="F9" s="6">
-        <v>4.552500009536742</v>
+        <v>4.5525000095367423</v>
       </c>
       <c r="G9" s="6">
-        <v>4.552500009536742</v>
+        <v>4.5525000095367423</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <v>4.54249995946884</v>
+        <v>4.5424999594688398</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -4663,10 +4531,16 @@
         <v>373.75</v>
       </c>
       <c r="R9" s="6">
-        <v>76.33333333333333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>76.333333333333329</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10204</v>
       </c>
@@ -4689,7 +4563,7 @@
         <v>3.15999999642372</v>
       </c>
       <c r="H10" s="6">
-        <v>0.0049999998882415</v>
+        <v>4.9999998882415001E-3</v>
       </c>
       <c r="I10" s="6">
         <v>3.150000005960464</v>
@@ -4721,8 +4595,14 @@
       <c r="R10" s="6">
         <v>79.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10205</v>
       </c>
@@ -4739,16 +4619,16 @@
         <v>5051.5</v>
       </c>
       <c r="F11" s="6">
-        <v>3.410000026226044</v>
+        <v>3.4100000262260441</v>
       </c>
       <c r="G11" s="6">
-        <v>3.410000026226044</v>
+        <v>3.4100000262260441</v>
       </c>
       <c r="H11" s="6">
-        <v>0.165000006556511</v>
+        <v>0.16500000655651101</v>
       </c>
       <c r="I11" s="6">
-        <v>3.235000073909759</v>
+        <v>3.2350000739097591</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
@@ -4774,9 +4654,14 @@
       <c r="Q11" s="6">
         <v>300.5</v>
       </c>
-      <c r="R11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="T11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10301</v>
       </c>
@@ -4793,16 +4678,16 @@
         <v>609.5</v>
       </c>
       <c r="F12" s="6">
-        <v>0.41000001039356</v>
+        <v>0.41000001039355999</v>
       </c>
       <c r="G12" s="6">
-        <v>0.41000001039356</v>
+        <v>0.41000001039355999</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <v>0.404999985359609</v>
+        <v>0.40499998535960902</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
@@ -4831,8 +4716,14 @@
       <c r="R12" s="6">
         <v>76</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10302</v>
       </c>
@@ -4849,16 +4740,16 @@
         <v>10957.8</v>
       </c>
       <c r="F13" s="6">
-        <v>7.107999992370608</v>
+        <v>7.1079999923706083</v>
       </c>
       <c r="G13" s="6">
-        <v>7.107999992370608</v>
+        <v>7.1079999923706083</v>
       </c>
       <c r="H13" s="6">
-        <v>0.677999997138977</v>
+        <v>0.67799999713897696</v>
       </c>
       <c r="I13" s="6">
-        <v>6.069999980926513</v>
+        <v>6.0699999809265126</v>
       </c>
       <c r="J13" s="6">
         <v>5.8</v>
@@ -4870,7 +4761,7 @@
         <v>367.4</v>
       </c>
       <c r="M13" s="6">
-        <v>633.8</v>
+        <v>633.79999999999995</v>
       </c>
       <c r="N13" s="6">
         <v>3188.8</v>
@@ -4887,8 +4778,14 @@
       <c r="R13" s="6">
         <v>62.6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10303</v>
       </c>
@@ -4905,16 +4802,16 @@
         <v>10355.5</v>
       </c>
       <c r="F14" s="6">
-        <v>6.830000162124634</v>
+        <v>6.8300001621246338</v>
       </c>
       <c r="G14" s="6">
-        <v>6.830000162124634</v>
+        <v>6.8300001621246338</v>
       </c>
       <c r="H14" s="6">
-        <v>0.360000014305115</v>
+        <v>0.36000001430511502</v>
       </c>
       <c r="I14" s="6">
-        <v>6.38499999046326</v>
+        <v>6.3849999904632604</v>
       </c>
       <c r="J14" s="6">
         <v>1.5</v>
@@ -4944,7 +4841,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10304</v>
       </c>
@@ -4970,7 +4867,7 @@
         <v>0.1179999947547912</v>
       </c>
       <c r="I15" s="6">
-        <v>2.781999969482422</v>
+        <v>2.7819999694824218</v>
       </c>
       <c r="J15" s="6">
         <v>0.2</v>
@@ -4997,10 +4894,10 @@
         <v>266.2</v>
       </c>
       <c r="R15" s="6">
-        <v>74.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10305</v>
       </c>
@@ -5017,16 +4914,16 @@
         <v>4310.333333333333</v>
       </c>
       <c r="F16" s="6">
-        <v>2.990000009536743</v>
+        <v>2.9900000095367432</v>
       </c>
       <c r="G16" s="6">
-        <v>2.990000009536743</v>
+        <v>2.9900000095367432</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <v>2.980000019073487</v>
+        <v>2.9800000190734872</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -5044,19 +4941,19 @@
         <v>2002</v>
       </c>
       <c r="O16" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="6">
         <v>1459</v>
       </c>
       <c r="Q16" s="6">
-        <v>315.3333333333333</v>
+        <v>315.33333333333331</v>
       </c>
       <c r="R16" s="6">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>10306</v>
       </c>
@@ -5073,16 +4970,16 @@
         <v>2992</v>
       </c>
       <c r="F17" s="6">
-        <v>2.0699999332428</v>
+        <v>2.0699999332428001</v>
       </c>
       <c r="G17" s="6">
-        <v>2.0699999332428</v>
+        <v>2.0699999332428001</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
       <c r="I17" s="6">
-        <v>2.05999994277954</v>
+        <v>2.0599999427795401</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -5112,7 +5009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>10307</v>
       </c>
@@ -5129,13 +5026,13 @@
         <v>3754.5</v>
       </c>
       <c r="F18" s="6">
-        <v>2.400000020861624</v>
+        <v>2.4000000208616239</v>
       </c>
       <c r="G18" s="6">
-        <v>2.400000020861624</v>
+        <v>2.4000000208616239</v>
       </c>
       <c r="H18" s="6">
-        <v>0.33500000834465</v>
+        <v>0.33500000834464999</v>
       </c>
       <c r="I18" s="6">
         <v>1.900000020861625</v>
@@ -5168,7 +5065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>10401</v>
       </c>
@@ -5185,13 +5082,13 @@
         <v>6023.25</v>
       </c>
       <c r="F19" s="6">
-        <v>3.957499980926517</v>
+        <v>3.9574999809265168</v>
       </c>
       <c r="G19" s="6">
-        <v>3.957499980926517</v>
+        <v>3.9574999809265168</v>
       </c>
       <c r="H19" s="6">
-        <v>0.3725000023841858</v>
+        <v>0.37250000238418579</v>
       </c>
       <c r="I19" s="6">
         <v>3.420000016689297</v>
@@ -5224,7 +5121,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10402</v>
       </c>
@@ -5241,16 +5138,16 @@
         <v>4433</v>
       </c>
       <c r="F20" s="6">
-        <v>3.115000009536745</v>
+        <v>3.1150000095367449</v>
       </c>
       <c r="G20" s="6">
-        <v>3.115000009536745</v>
+        <v>3.1150000095367449</v>
       </c>
       <c r="H20" s="6">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="I20" s="6">
-        <v>2.77999997138977</v>
+        <v>2.7799999713897701</v>
       </c>
       <c r="J20" s="6">
         <v>0.5</v>
@@ -5276,9 +5173,8 @@
       <c r="Q20" s="6">
         <v>438</v>
       </c>
-      <c r="R20" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    </row>
+    <row r="21" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>10403</v>
       </c>
@@ -5295,16 +5191,16 @@
         <v>9111.6</v>
       </c>
       <c r="F21" s="6">
-        <v>5.816000008583065</v>
+        <v>5.8160000085830648</v>
       </c>
       <c r="G21" s="6">
-        <v>5.816000008583065</v>
+        <v>5.8160000085830648</v>
       </c>
       <c r="H21" s="6">
         <v>0.2399999976158142</v>
       </c>
       <c r="I21" s="6">
-        <v>5.466000199317928</v>
+        <v>5.4660001993179277</v>
       </c>
       <c r="J21" s="6">
         <v>1.4</v>
@@ -5334,7 +5230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10404</v>
       </c>
@@ -5351,16 +5247,16 @@
         <v>7918.4</v>
       </c>
       <c r="F22" s="6">
-        <v>5.302000045776368</v>
+        <v>5.3020000457763681</v>
       </c>
       <c r="G22" s="6">
-        <v>5.302000045776368</v>
+        <v>5.3020000457763681</v>
       </c>
       <c r="H22" s="6">
-        <v>0.09399999976158141</v>
+        <v>9.399999976158141E-2</v>
       </c>
       <c r="I22" s="6">
-        <v>5.183999967575072</v>
+        <v>5.1839999675750716</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
@@ -5369,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="L22" s="6">
-        <v>288.4</v>
+        <v>288.39999999999998</v>
       </c>
       <c r="M22" s="6">
         <v>692.2</v>
@@ -5387,10 +5283,10 @@
         <v>471.8</v>
       </c>
       <c r="R22" s="6">
-        <v>67.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10405</v>
       </c>
@@ -5407,10 +5303,10 @@
         <v>4919</v>
       </c>
       <c r="F23" s="6">
-        <v>3.196666717529297</v>
+        <v>3.1966667175292969</v>
       </c>
       <c r="G23" s="6">
-        <v>3.196666717529297</v>
+        <v>3.1966667175292969</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -5425,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="6">
-        <v>194.6666666666667</v>
+        <v>194.66666666666671</v>
       </c>
       <c r="M23" s="6">
-        <v>899.6666666666666</v>
+        <v>899.66666666666663</v>
       </c>
       <c r="N23" s="6">
         <v>1901</v>
@@ -5440,13 +5336,13 @@
         <v>1403</v>
       </c>
       <c r="Q23" s="6">
-        <v>297.3333333333333</v>
+        <v>297.33333333333331</v>
       </c>
       <c r="R23" s="6">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10406</v>
       </c>
@@ -5463,16 +5359,16 @@
         <v>16947.8</v>
       </c>
       <c r="F24" s="6">
-        <v>13.34800024032594</v>
+        <v>13.348000240325939</v>
       </c>
       <c r="G24" s="6">
-        <v>13.34800024032594</v>
+        <v>13.348000240325939</v>
       </c>
       <c r="H24" s="6">
-        <v>0.7979999929666525</v>
+        <v>0.79799999296665247</v>
       </c>
       <c r="I24" s="6">
-        <v>6.65800004005432</v>
+        <v>6.6580000400543202</v>
       </c>
       <c r="J24" s="6">
         <v>43.4</v>
@@ -5484,7 +5380,7 @@
         <v>365.6</v>
       </c>
       <c r="M24" s="6">
-        <v>562.8</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="N24" s="6">
         <v>2210.4</v>
@@ -5502,7 +5398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>10407</v>
       </c>
@@ -5519,16 +5415,16 @@
         <v>5433.2</v>
       </c>
       <c r="F25" s="6">
-        <v>3.6199999332428</v>
+        <v>3.6199999332427999</v>
       </c>
       <c r="G25" s="6">
-        <v>3.6199999332428</v>
+        <v>3.6199999332427999</v>
       </c>
       <c r="H25" s="6">
-        <v>0.7139999985694885</v>
+        <v>0.71399999856948848</v>
       </c>
       <c r="I25" s="6">
-        <v>2.624000000953676</v>
+        <v>2.6240000009536759</v>
       </c>
       <c r="J25" s="6">
         <v>10.8</v>
@@ -5543,7 +5439,7 @@
         <v>558</v>
       </c>
       <c r="N25" s="6">
-        <v>2296.8</v>
+        <v>2296.8000000000002</v>
       </c>
       <c r="O25" s="6">
         <v>22</v>
@@ -5555,10 +5451,10 @@
         <v>545.4</v>
       </c>
       <c r="R25" s="6">
-        <v>77.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10408</v>
       </c>
@@ -5575,16 +5471,16 @@
         <v>10088</v>
       </c>
       <c r="F26" s="6">
-        <v>6.849999904632567</v>
+        <v>6.8499999046325666</v>
       </c>
       <c r="G26" s="6">
-        <v>6.849999904632567</v>
+        <v>6.8499999046325666</v>
       </c>
       <c r="H26" s="6">
-        <v>0.2575000002980233</v>
+        <v>0.25750000029802328</v>
       </c>
       <c r="I26" s="6">
-        <v>6.492499947547913</v>
+        <v>6.4924999475479126</v>
       </c>
       <c r="J26" s="6">
         <v>1.25</v>
@@ -5614,7 +5510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>10409</v>
       </c>
@@ -5631,16 +5527,16 @@
         <v>10820.5</v>
       </c>
       <c r="F27" s="6">
-        <v>7.830000162124646</v>
+        <v>7.8300001621246462</v>
       </c>
       <c r="G27" s="6">
-        <v>7.830000162124646</v>
+        <v>7.8300001621246462</v>
       </c>
       <c r="H27" s="6">
-        <v>0.185000002384186</v>
+        <v>0.18500000238418601</v>
       </c>
       <c r="I27" s="6">
-        <v>7.555000066757225</v>
+        <v>7.5550000667572252</v>
       </c>
       <c r="J27" s="6">
         <v>1</v>
@@ -5670,7 +5566,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10410</v>
       </c>
@@ -5696,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6">
-        <v>2.259999978542327</v>
+        <v>2.2599999785423268</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
@@ -5726,7 +5622,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>10412</v>
       </c>
@@ -5743,16 +5639,16 @@
         <v>8121</v>
       </c>
       <c r="F29" s="6">
-        <v>5.449999809265139</v>
+        <v>5.4499998092651394</v>
       </c>
       <c r="G29" s="6">
-        <v>5.449999809265139</v>
+        <v>5.4499998092651394</v>
       </c>
       <c r="H29" s="6">
-        <v>0.180000007152557</v>
+        <v>0.18000000715255701</v>
       </c>
       <c r="I29" s="6">
-        <v>5.09000015258789</v>
+        <v>5.0900001525878897</v>
       </c>
       <c r="J29" s="6">
         <v>5</v>
@@ -5782,7 +5678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>10413</v>
       </c>
@@ -5799,16 +5695,16 @@
         <v>11169</v>
       </c>
       <c r="F30" s="6">
-        <v>7.380000114440921</v>
+        <v>7.3800001144409206</v>
       </c>
       <c r="G30" s="6">
-        <v>7.380000114440921</v>
+        <v>7.3800001144409206</v>
       </c>
       <c r="H30" s="6">
         <v>0.109999999403954</v>
       </c>
       <c r="I30" s="6">
-        <v>7.15999984741211</v>
+        <v>7.1599998474121103</v>
       </c>
       <c r="J30" s="6">
         <v>4</v>
@@ -5838,7 +5734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>10415</v>
       </c>
@@ -5852,16 +5748,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>8455.666666666666</v>
+        <v>8455.6666666666661</v>
       </c>
       <c r="F31" s="6">
-        <v>5.946666717529293</v>
+        <v>5.9466667175292933</v>
       </c>
       <c r="G31" s="6">
-        <v>5.946666717529293</v>
+        <v>5.9466667175292933</v>
       </c>
       <c r="H31" s="6">
-        <v>0.1166666646798453</v>
+        <v>0.11666666467984529</v>
       </c>
       <c r="I31" s="6">
         <v>5.81333351135254</v>
@@ -5873,7 +5769,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="L31" s="6">
-        <v>360.6666666666667</v>
+        <v>360.66666666666669</v>
       </c>
       <c r="M31" s="6">
         <v>1076.666666666667</v>
@@ -5882,7 +5778,7 @@
         <v>2261.333333333333</v>
       </c>
       <c r="O31" s="6">
-        <v>20.33333333333333</v>
+        <v>20.333333333333329</v>
       </c>
       <c r="P31" s="6">
         <v>1428</v>
@@ -5891,10 +5787,10 @@
         <v>501</v>
       </c>
       <c r="R31" s="6">
-        <v>75.66666666666667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+        <v>75.666666666666671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>10501</v>
       </c>
@@ -5911,16 +5807,16 @@
         <v>9969.4</v>
       </c>
       <c r="F32" s="6">
-        <v>6.381999954581262</v>
+        <v>6.3819999545812616</v>
       </c>
       <c r="G32" s="6">
-        <v>6.381999954581262</v>
+        <v>6.3819999545812616</v>
       </c>
       <c r="H32" s="6">
-        <v>0.4680000007152554</v>
+        <v>0.46800000071525538</v>
       </c>
       <c r="I32" s="6">
-        <v>5.416000065207479</v>
+        <v>5.4160000652074789</v>
       </c>
       <c r="J32" s="6">
         <v>6.4</v>
@@ -5950,7 +5846,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>10502</v>
       </c>
@@ -5967,16 +5863,16 @@
         <v>6150</v>
       </c>
       <c r="F33" s="6">
-        <v>4.05999994277954</v>
+        <v>4.0599999427795401</v>
       </c>
       <c r="G33" s="6">
-        <v>4.05999994277954</v>
+        <v>4.0599999427795401</v>
       </c>
       <c r="H33" s="6">
         <v>0</v>
       </c>
       <c r="I33" s="6">
-        <v>4.01000022888184</v>
+        <v>4.0100002288818404</v>
       </c>
       <c r="J33" s="6">
         <v>0</v>
@@ -6002,9 +5898,8 @@
       <c r="Q33" s="6">
         <v>446</v>
       </c>
-      <c r="R33" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    </row>
+    <row r="34" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>10503</v>
       </c>
@@ -6021,16 +5916,16 @@
         <v>6640.4</v>
       </c>
       <c r="F34" s="6">
-        <v>4.666000032424924</v>
+        <v>4.6660000324249236</v>
       </c>
       <c r="G34" s="6">
-        <v>4.666000032424924</v>
+        <v>4.6660000324249236</v>
       </c>
       <c r="H34" s="6">
-        <v>0.4960000038146973</v>
+        <v>0.49600000381469728</v>
       </c>
       <c r="I34" s="6">
-        <v>4.133999967575074</v>
+        <v>4.1339999675750736</v>
       </c>
       <c r="J34" s="6">
         <v>2.8</v>
@@ -6039,10 +5934,10 @@
         <v>20.8</v>
       </c>
       <c r="L34" s="6">
-        <v>305.6</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="M34" s="6">
-        <v>539.2</v>
+        <v>539.20000000000005</v>
       </c>
       <c r="N34" s="6">
         <v>2038</v>
@@ -6060,7 +5955,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>10504</v>
       </c>
@@ -6077,16 +5972,16 @@
         <v>475</v>
       </c>
       <c r="F35" s="6">
-        <v>0.3100000023841861</v>
+        <v>0.31000000238418612</v>
       </c>
       <c r="G35" s="6">
-        <v>0.3100000023841861</v>
+        <v>0.31000000238418612</v>
       </c>
       <c r="H35" s="6">
         <v>0</v>
       </c>
       <c r="I35" s="6">
-        <v>0.3100000023841861</v>
+        <v>0.31000000238418612</v>
       </c>
       <c r="J35" s="6">
         <v>0</v>
@@ -6112,9 +6007,8 @@
       <c r="Q35" s="6">
         <v>30</v>
       </c>
-      <c r="R35" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    </row>
+    <row r="36" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>10505</v>
       </c>
@@ -6131,19 +6025,19 @@
         <v>4553.2</v>
       </c>
       <c r="F36" s="6">
-        <v>3.184000015258788</v>
+        <v>3.1840000152587882</v>
       </c>
       <c r="G36" s="6">
-        <v>3.184000015258788</v>
+        <v>3.1840000152587882</v>
       </c>
       <c r="H36" s="6">
-        <v>0.1459999993443488</v>
+        <v>0.14599999934434879</v>
       </c>
       <c r="I36" s="6">
-        <v>2.96199998855591</v>
+        <v>2.9619999885559101</v>
       </c>
       <c r="J36" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K36" s="6">
         <v>7.8</v>
@@ -6164,13 +6058,13 @@
         <v>1865</v>
       </c>
       <c r="Q36" s="6">
-        <v>609.8</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="R36" s="6">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>10601</v>
       </c>
@@ -6187,13 +6081,13 @@
         <v>3976.4</v>
       </c>
       <c r="F37" s="6">
-        <v>2.62400007247925</v>
+        <v>2.6240000724792498</v>
       </c>
       <c r="G37" s="6">
-        <v>2.62400007247925</v>
+        <v>2.6240000724792498</v>
       </c>
       <c r="H37" s="6">
-        <v>0.09200000166892999</v>
+        <v>9.2000001668929993E-2</v>
       </c>
       <c r="I37" s="6">
         <v>2.361999988555906</v>
@@ -6208,7 +6102,7 @@
         <v>201.8</v>
       </c>
       <c r="M37" s="6">
-        <v>1050.6</v>
+        <v>1050.5999999999999</v>
       </c>
       <c r="N37" s="6">
         <v>2263</v>
@@ -6226,7 +6120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>10602</v>
       </c>
@@ -6243,13 +6137,13 @@
         <v>7515.4</v>
       </c>
       <c r="F38" s="6">
-        <v>4.896000099182128</v>
+        <v>4.8960000991821282</v>
       </c>
       <c r="G38" s="6">
-        <v>4.896000099182128</v>
+        <v>4.8960000991821282</v>
       </c>
       <c r="H38" s="6">
-        <v>0.194000005722046</v>
+        <v>0.19400000572204601</v>
       </c>
       <c r="I38" s="6">
         <v>3.770000123977661</v>
@@ -6282,7 +6176,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>10603</v>
       </c>
@@ -6317,28 +6211,28 @@
         <v>0</v>
       </c>
       <c r="L39" s="6">
-        <v>84.33333333333333</v>
+        <v>84.333333333333329</v>
       </c>
       <c r="M39" s="6">
-        <v>861.6666666666666</v>
+        <v>861.66666666666663</v>
       </c>
       <c r="N39" s="6">
         <v>1693.666666666667</v>
       </c>
       <c r="O39" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P39" s="6">
         <v>1454.666666666667</v>
       </c>
       <c r="Q39" s="6">
-        <v>142.6666666666667</v>
+        <v>142.66666666666671</v>
       </c>
       <c r="R39" s="6">
         <v>80.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>10604</v>
       </c>
@@ -6355,16 +6249,16 @@
         <v>9111.5</v>
       </c>
       <c r="F40" s="6">
-        <v>6.194999933242798</v>
+        <v>6.1949999332427979</v>
       </c>
       <c r="G40" s="6">
-        <v>6.194999933242798</v>
+        <v>6.1949999332427979</v>
       </c>
       <c r="H40" s="6">
-        <v>0.0750000001862645</v>
+        <v>7.5000000186264501E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>6.072499871253967</v>
+        <v>6.0724998712539673</v>
       </c>
       <c r="J40" s="6">
         <v>2</v>
@@ -6394,7 +6288,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>10605</v>
       </c>
@@ -6411,16 +6305,16 @@
         <v>4900.5</v>
       </c>
       <c r="F41" s="6">
-        <v>3.235000014305115</v>
+        <v>3.2350000143051152</v>
       </c>
       <c r="G41" s="6">
-        <v>3.235000014305115</v>
+        <v>3.2350000143051152</v>
       </c>
       <c r="H41" s="6">
         <v>0.125</v>
       </c>
       <c r="I41" s="6">
-        <v>3.10000002384186</v>
+        <v>3.1000000238418601</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
@@ -6446,9 +6340,8 @@
       <c r="Q41" s="6">
         <v>435.5</v>
       </c>
-      <c r="R41" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    </row>
+    <row r="42" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>10606</v>
       </c>
@@ -6471,10 +6364,10 @@
         <v>5.408000040054322</v>
       </c>
       <c r="H42" s="6">
-        <v>0.4479999899864188</v>
+        <v>0.44799998998641882</v>
       </c>
       <c r="I42" s="6">
-        <v>4.828000056743621</v>
+        <v>4.8280000567436208</v>
       </c>
       <c r="J42" s="6">
         <v>2.6</v>
@@ -6504,7 +6397,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>10607</v>
       </c>
@@ -6521,16 +6414,16 @@
         <v>6914</v>
       </c>
       <c r="F43" s="6">
-        <v>4.705000056885184</v>
+        <v>4.7050000568851837</v>
       </c>
       <c r="G43" s="6">
-        <v>4.705000056885184</v>
+        <v>4.7050000568851837</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
       <c r="I43" s="6">
-        <v>4.690000190399589</v>
+        <v>4.6900001903995889</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -6560,7 +6453,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>10608</v>
       </c>
@@ -6577,16 +6470,16 @@
         <v>6485</v>
       </c>
       <c r="F44" s="6">
-        <v>4.215999937057497</v>
+        <v>4.2159999370574974</v>
       </c>
       <c r="G44" s="6">
-        <v>4.215999937057497</v>
+        <v>4.2159999370574974</v>
       </c>
       <c r="H44" s="6">
-        <v>0.0439999997615814</v>
+        <v>4.39999997615814E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>3.980000019073484</v>
+        <v>3.9800000190734841</v>
       </c>
       <c r="J44" s="6">
         <v>2.8</v>
@@ -6616,7 +6509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>10609</v>
       </c>
@@ -6633,16 +6526,16 @@
         <v>5366.5</v>
       </c>
       <c r="F45" s="6">
-        <v>3.489999952260406</v>
+        <v>3.4899999522604062</v>
       </c>
       <c r="G45" s="6">
-        <v>3.489999952260406</v>
+        <v>3.4899999522604062</v>
       </c>
       <c r="H45" s="6">
-        <v>0.05249999836087225</v>
+        <v>5.2499998360872248E-2</v>
       </c>
       <c r="I45" s="6">
-        <v>3.402499916497616</v>
+        <v>3.4024999164976162</v>
       </c>
       <c r="J45" s="6">
         <v>0.75</v>
@@ -6672,7 +6565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>10610</v>
       </c>
@@ -6689,16 +6582,16 @@
         <v>6984.5</v>
       </c>
       <c r="F46" s="6">
-        <v>4.670000076293944</v>
+        <v>4.6700000762939444</v>
       </c>
       <c r="G46" s="6">
-        <v>4.670000076293944</v>
+        <v>4.6700000762939444</v>
       </c>
       <c r="H46" s="6">
         <v>0.2300000060349702</v>
       </c>
       <c r="I46" s="6">
-        <v>4.36500006914139</v>
+        <v>4.3650000691413897</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -6728,7 +6621,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>10611</v>
       </c>
@@ -6745,16 +6638,16 @@
         <v>7396.2</v>
       </c>
       <c r="F47" s="6">
-        <v>5.395999908447267</v>
+        <v>5.3959999084472674</v>
       </c>
       <c r="G47" s="6">
-        <v>5.395999908447267</v>
+        <v>5.3959999084472674</v>
       </c>
       <c r="H47" s="6">
-        <v>0.07799999713897701</v>
+        <v>7.7999997138977012E-2</v>
       </c>
       <c r="I47" s="6">
-        <v>3.270000052452089</v>
+        <v>3.2700000524520889</v>
       </c>
       <c r="J47" s="6">
         <v>10.6</v>
@@ -6769,7 +6662,7 @@
         <v>1061</v>
       </c>
       <c r="N47" s="6">
-        <v>2346.8</v>
+        <v>2346.8000000000002</v>
       </c>
       <c r="O47" s="6">
         <v>1.8</v>
@@ -6784,7 +6677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row r="48" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>10612</v>
       </c>
@@ -6801,16 +6694,16 @@
         <v>5266.5</v>
       </c>
       <c r="F48" s="6">
-        <v>3.640000104904175</v>
+        <v>3.6400001049041748</v>
       </c>
       <c r="G48" s="6">
-        <v>3.640000104904175</v>
+        <v>3.6400001049041748</v>
       </c>
       <c r="H48" s="6">
-        <v>0.03999999910593049</v>
+        <v>3.9999999105930488E-2</v>
       </c>
       <c r="I48" s="6">
-        <v>3.585000038146975</v>
+        <v>3.5850000381469749</v>
       </c>
       <c r="J48" s="6">
         <v>0.5</v>
@@ -6840,7 +6733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row r="49" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>10613</v>
       </c>
@@ -6857,16 +6750,16 @@
         <v>1451</v>
       </c>
       <c r="F49" s="6">
-        <v>0.910000026226044</v>
+        <v>0.91000002622604403</v>
       </c>
       <c r="G49" s="6">
-        <v>0.910000026226044</v>
+        <v>0.91000002622604403</v>
       </c>
       <c r="H49" s="6">
-        <v>0.050000000745058</v>
+        <v>5.0000000745057997E-2</v>
       </c>
       <c r="I49" s="6">
-        <v>0.7200000286102299</v>
+        <v>0.72000002861022994</v>
       </c>
       <c r="J49" s="6">
         <v>8</v>
@@ -6892,9 +6785,8 @@
       <c r="Q49" s="6">
         <v>162</v>
       </c>
-      <c r="R49" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    </row>
+    <row r="50" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>10614</v>
       </c>
@@ -6911,16 +6803,16 @@
         <v>8507.4</v>
       </c>
       <c r="F50" s="6">
-        <v>5.336000078916549</v>
+        <v>5.3360000789165491</v>
       </c>
       <c r="G50" s="6">
-        <v>5.336000078916549</v>
+        <v>5.3360000789165491</v>
       </c>
       <c r="H50" s="6">
         <v>1.65599997229874</v>
       </c>
       <c r="I50" s="6">
-        <v>2.671999961137773</v>
+        <v>2.6719999611377729</v>
       </c>
       <c r="J50" s="6">
         <v>41.8</v>
@@ -6935,7 +6827,7 @@
         <v>935</v>
       </c>
       <c r="N50" s="6">
-        <v>2541.8</v>
+        <v>2541.8000000000002</v>
       </c>
       <c r="O50" s="6">
         <v>11.2</v>
@@ -6947,10 +6839,10 @@
         <v>855.4</v>
       </c>
       <c r="R50" s="6">
-        <v>71.66666666666667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+        <v>71.666666666666671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>10615</v>
       </c>
@@ -6967,16 +6859,16 @@
         <v>2390.6</v>
       </c>
       <c r="F51" s="6">
-        <v>1.732000017166138</v>
+        <v>1.7320000171661381</v>
       </c>
       <c r="G51" s="6">
-        <v>1.732000017166138</v>
+        <v>1.7320000171661381</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
       <c r="I51" s="6">
-        <v>1.720000004768372</v>
+        <v>1.7200000047683719</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
@@ -6985,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="6">
-        <v>130.8</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="M51" s="6">
         <v>707</v>
@@ -7006,7 +6898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>10616</v>
       </c>
@@ -7023,10 +6915,10 @@
         <v>2295</v>
       </c>
       <c r="F52" s="6">
-        <v>1.447499992791563</v>
+        <v>1.4474999927915631</v>
       </c>
       <c r="G52" s="6">
-        <v>1.447499992791563</v>
+        <v>1.4474999927915631</v>
       </c>
       <c r="H52" s="6">
         <v>0</v>
@@ -7062,7 +6954,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row r="53" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>10701</v>
       </c>
@@ -7085,16 +6977,16 @@
         <v>2.129999983310698</v>
       </c>
       <c r="H53" s="6">
-        <v>0.046000000834465</v>
+        <v>4.6000000834465003E-2</v>
       </c>
       <c r="I53" s="6">
-        <v>2.053999960422516</v>
+        <v>2.0539999604225159</v>
       </c>
       <c r="J53" s="6">
         <v>0.6</v>
       </c>
       <c r="K53" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L53" s="6">
         <v>144.4</v>
@@ -7118,7 +7010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>10702</v>
       </c>
@@ -7135,16 +7027,16 @@
         <v>4911</v>
       </c>
       <c r="F54" s="6">
-        <v>3.25499999523163</v>
+        <v>3.2549999952316302</v>
       </c>
       <c r="G54" s="6">
-        <v>3.25499999523163</v>
+        <v>3.2549999952316302</v>
       </c>
       <c r="H54" s="6">
-        <v>0.5599999707192175</v>
+        <v>0.55999997071921748</v>
       </c>
       <c r="I54" s="6">
-        <v>2.564999997615815</v>
+        <v>2.5649999976158151</v>
       </c>
       <c r="J54" s="6">
         <v>5.5</v>
@@ -7174,7 +7066,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row r="55" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>10703</v>
       </c>
@@ -7191,16 +7083,16 @@
         <v>5850</v>
       </c>
       <c r="F55" s="6">
-        <v>3.79999995231628</v>
+        <v>3.7999999523162802</v>
       </c>
       <c r="G55" s="6">
-        <v>3.79999995231628</v>
+        <v>3.7999999523162802</v>
       </c>
       <c r="H55" s="6">
-        <v>0.3100000023841861</v>
+        <v>0.31000000238418612</v>
       </c>
       <c r="I55" s="6">
-        <v>3.01999998092651</v>
+        <v>3.0199999809265101</v>
       </c>
       <c r="J55" s="6">
         <v>21</v>
@@ -7230,7 +7122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>10704</v>
       </c>
@@ -7247,16 +7139,16 @@
         <v>3133.5</v>
       </c>
       <c r="F56" s="6">
-        <v>2.129999995231626</v>
+        <v>2.1299999952316262</v>
       </c>
       <c r="G56" s="6">
-        <v>2.129999995231626</v>
+        <v>2.1299999952316262</v>
       </c>
       <c r="H56" s="6">
         <v>0</v>
       </c>
       <c r="I56" s="6">
-        <v>1.815000049769876</v>
+        <v>1.8150000497698759</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
@@ -7286,7 +7178,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row r="57" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>10801</v>
       </c>
@@ -7303,10 +7195,10 @@
         <v>7615.5</v>
       </c>
       <c r="F57" s="6">
-        <v>5.389999866485596</v>
+        <v>5.3899998664855957</v>
       </c>
       <c r="G57" s="6">
-        <v>5.389999866485596</v>
+        <v>5.3899998664855957</v>
       </c>
       <c r="H57" s="6">
         <v>1.214999981224538</v>
@@ -7342,7 +7234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row r="58" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>10802</v>
       </c>
@@ -7359,13 +7251,13 @@
         <v>5846.6</v>
       </c>
       <c r="F58" s="6">
-        <v>4.358000040054322</v>
+        <v>4.3580000400543222</v>
       </c>
       <c r="G58" s="6">
-        <v>4.358000040054322</v>
+        <v>4.3580000400543222</v>
       </c>
       <c r="H58" s="6">
-        <v>0.2700000107288368</v>
+        <v>0.27000001072883678</v>
       </c>
       <c r="I58" s="6">
         <v>3.974000024795532</v>
@@ -7395,10 +7287,10 @@
         <v>673.6</v>
       </c>
       <c r="R58" s="6">
-        <v>67.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>10803</v>
       </c>
@@ -7415,16 +7307,16 @@
         <v>5408</v>
       </c>
       <c r="F59" s="6">
-        <v>3.73000001907349</v>
+        <v>3.7300000190734899</v>
       </c>
       <c r="G59" s="6">
-        <v>3.73000001907349</v>
+        <v>3.7300000190734899</v>
       </c>
       <c r="H59" s="6">
-        <v>0.52999997138977</v>
+        <v>0.52999997138976995</v>
       </c>
       <c r="I59" s="6">
-        <v>3.05999994277954</v>
+        <v>3.0599999427795401</v>
       </c>
       <c r="J59" s="6">
         <v>4</v>
@@ -7454,7 +7346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row r="60" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>10804</v>
       </c>
@@ -7471,16 +7363,16 @@
         <v>4645</v>
       </c>
       <c r="F60" s="6">
-        <v>3.17000007629395</v>
+        <v>3.1700000762939502</v>
       </c>
       <c r="G60" s="6">
-        <v>3.17000007629395</v>
+        <v>3.1700000762939502</v>
       </c>
       <c r="H60" s="6">
         <v>0</v>
       </c>
       <c r="I60" s="6">
-        <v>3.16000008583069</v>
+        <v>3.1600000858306898</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
